--- a/excel_upload/buglist.xlsx
+++ b/excel_upload/buglist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\给庆，测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB944077-F8C4-4CFC-9847-A5C803736E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1816,7 +1815,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -2162,26 +2161,26 @@
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{4ABD6635-CC48-4298-ADA0-C246A6E3AFC2}"/>
-    <cellStyle name="常规 2 2" xfId="3" xr:uid="{34D840DB-5891-408B-8EB1-6355A6A9B71C}"/>
-    <cellStyle name="常规 2 2 2" xfId="4" xr:uid="{C67EAD9C-4534-47ED-8BF8-D59286AE9F69}"/>
-    <cellStyle name="常规 2 3" xfId="5" xr:uid="{C6574BD6-8B52-443D-BE3E-B0D2F6BC8BB5}"/>
-    <cellStyle name="常规 2 4" xfId="6" xr:uid="{D18F050F-FBC1-4F20-B8CF-7F7F2BE61B0F}"/>
-    <cellStyle name="常规 2 5" xfId="7" xr:uid="{50AE5420-8C18-4A77-A160-417DACDE407F}"/>
-    <cellStyle name="常规 2 6" xfId="9" xr:uid="{F1BA31B9-8E76-47D6-A8EA-0EE6F6A1964C}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{BD9915DF-94AF-4F02-B38D-0C3B396FE96F}"/>
-    <cellStyle name="常规 3 2" xfId="8" xr:uid="{80430592-7B8D-4C6F-B0A6-DAC7FFECE16B}"/>
-    <cellStyle name="常规 3 3" xfId="12" xr:uid="{1F906332-A6A9-4878-90D8-A16E9BAB6761}"/>
-    <cellStyle name="常规 3 4" xfId="13" xr:uid="{686F0105-33EA-47B3-8419-0A95B71D8EE6}"/>
-    <cellStyle name="常规 3 5" xfId="14" xr:uid="{84F11445-CE65-47FA-951B-FBC07085CEFA}"/>
-    <cellStyle name="常规 3 5 2" xfId="15" xr:uid="{1523F8BD-3A94-41AB-965A-0D1BCB59EF4A}"/>
-    <cellStyle name="常规 3 5 2 2" xfId="17" xr:uid="{3AD8C8C0-D258-4222-96D5-60DB497E09C3}"/>
-    <cellStyle name="常规 3 5 2 3" xfId="18" xr:uid="{A1CAD0ED-1A25-4B39-84BC-7BFF5FF7A960}"/>
-    <cellStyle name="常规 3 5 2 4" xfId="20" xr:uid="{5F4905C9-766D-480C-9901-DC5964DF99EF}"/>
-    <cellStyle name="常规 4" xfId="10" xr:uid="{42863FAB-D87F-4C9A-81A9-7CC8144F75A0}"/>
-    <cellStyle name="常规 5" xfId="11" xr:uid="{FCDAD5ED-4E3F-4B24-9F1E-7E253464298B}"/>
-    <cellStyle name="常规 6" xfId="16" xr:uid="{B4DFBA94-7738-43DA-B701-F1A95E4ABD3B}"/>
-    <cellStyle name="常规 6 2" xfId="19" xr:uid="{0C8889E1-6916-4F46-B616-0535422CDEB7}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 2" xfId="4"/>
+    <cellStyle name="常规 2 3" xfId="5"/>
+    <cellStyle name="常规 2 4" xfId="6"/>
+    <cellStyle name="常规 2 5" xfId="7"/>
+    <cellStyle name="常规 2 6" xfId="9"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="8"/>
+    <cellStyle name="常规 3 3" xfId="12"/>
+    <cellStyle name="常规 3 4" xfId="13"/>
+    <cellStyle name="常规 3 5" xfId="14"/>
+    <cellStyle name="常规 3 5 2" xfId="15"/>
+    <cellStyle name="常规 3 5 2 2" xfId="17"/>
+    <cellStyle name="常规 3 5 2 3" xfId="18"/>
+    <cellStyle name="常规 3 5 2 4" xfId="20"/>
+    <cellStyle name="常规 4" xfId="10"/>
+    <cellStyle name="常规 5" xfId="11"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="常规 6 2" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2458,12 +2457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="O270" sqref="O270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2554,7 +2552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1">
+    <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1">
+    <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -2850,7 +2848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1">
+    <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -2923,7 +2921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1">
+    <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1">
+    <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1">
+    <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1">
+    <row r="10" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1">
+    <row r="11" spans="1:25">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -3290,7 +3288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1">
+    <row r="12" spans="1:25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1">
+    <row r="13" spans="1:25">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1">
+    <row r="14" spans="1:25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1">
+    <row r="18" spans="1:24">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1">
+    <row r="19" spans="1:24">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -3825,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1">
+    <row r="20" spans="1:24">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -3884,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1">
+    <row r="21" spans="1:24">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -3940,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1">
+    <row r="22" spans="1:24">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -3996,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1">
+    <row r="23" spans="1:24">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1">
+    <row r="25" spans="1:24">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -4220,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1">
+    <row r="27" spans="1:24">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -4279,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1">
+    <row r="28" spans="1:24">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1">
+    <row r="29" spans="1:24">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1">
+    <row r="30" spans="1:24">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -4447,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1">
+    <row r="31" spans="1:24">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -4503,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1">
+    <row r="32" spans="1:24">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -4559,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1">
+    <row r="33" spans="1:24">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -4615,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1">
+    <row r="34" spans="1:24">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1">
+    <row r="35" spans="1:24">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -4727,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1">
+    <row r="36" spans="1:24">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1">
+    <row r="37" spans="1:24">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -4839,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1">
+    <row r="38" spans="1:24">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1">
+    <row r="39" spans="1:24">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -4954,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1">
+    <row r="40" spans="1:24">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -5010,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1">
+    <row r="41" spans="1:24">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -5066,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1">
+    <row r="42" spans="1:24">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -5122,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1">
+    <row r="43" spans="1:24">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1">
+    <row r="44" spans="1:24">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1">
+    <row r="45" spans="1:24">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1">
+    <row r="46" spans="1:24">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1">
+    <row r="47" spans="1:24">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1">
+    <row r="48" spans="1:24">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -5461,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1">
+    <row r="49" spans="1:24">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -5517,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1">
+    <row r="50" spans="1:24">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -5573,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1">
+    <row r="51" spans="1:24">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1">
+    <row r="52" spans="1:24">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1">
+    <row r="55" spans="1:24">
       <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1">
+    <row r="56" spans="1:24">
       <c r="A56" s="2" t="s">
         <v>50</v>
       </c>
@@ -5971,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1">
+    <row r="58" spans="1:24">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -6033,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1">
+    <row r="59" spans="1:24">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1">
+    <row r="60" spans="1:24">
       <c r="A60" s="2" t="s">
         <v>51</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1">
+    <row r="61" spans="1:24">
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
@@ -6204,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1">
+    <row r="62" spans="1:24">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -6749,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1">
+    <row r="72" spans="1:24">
       <c r="A72" s="2" t="s">
         <v>436</v>
       </c>
@@ -6811,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1">
+    <row r="73" spans="1:24">
       <c r="A73" s="2" t="s">
         <v>437</v>
       </c>
@@ -7468,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1">
+    <row r="85" spans="1:24">
       <c r="A85" s="2" t="s">
         <v>439</v>
       </c>
@@ -7636,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1">
+    <row r="88" spans="1:24">
       <c r="A88" s="2" t="s">
         <v>440</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1">
+    <row r="91" spans="1:24">
       <c r="A91" s="2" t="s">
         <v>440</v>
       </c>
@@ -7860,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1">
+    <row r="92" spans="1:24">
       <c r="A92" s="2" t="s">
         <v>440</v>
       </c>
@@ -7916,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1">
+    <row r="93" spans="1:24">
       <c r="A93" s="2" t="s">
         <v>440</v>
       </c>
@@ -7978,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:24" hidden="1">
+    <row r="94" spans="1:24">
       <c r="A94" s="2" t="s">
         <v>440</v>
       </c>
@@ -8093,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1">
+    <row r="96" spans="1:24">
       <c r="A96" s="2" t="s">
         <v>440</v>
       </c>
@@ -8152,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1">
+    <row r="97" spans="1:24">
       <c r="A97" s="2" t="s">
         <v>440</v>
       </c>
@@ -8208,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1">
+    <row r="98" spans="1:24">
       <c r="A98" s="2" t="s">
         <v>440</v>
       </c>
@@ -8320,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1">
+    <row r="100" spans="1:24">
       <c r="A100" s="2" t="s">
         <v>440</v>
       </c>
@@ -8429,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1">
+    <row r="102" spans="1:24">
       <c r="A102" s="2" t="s">
         <v>440</v>
       </c>
@@ -8488,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1">
+    <row r="103" spans="1:24">
       <c r="A103" s="2" t="s">
         <v>440</v>
       </c>
@@ -8547,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1">
+    <row r="104" spans="1:24">
       <c r="A104" s="2" t="s">
         <v>440</v>
       </c>
@@ -8656,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1">
+    <row r="106" spans="1:24">
       <c r="A106" s="2" t="s">
         <v>440</v>
       </c>
@@ -8715,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1">
+    <row r="107" spans="1:24">
       <c r="A107" s="2" t="s">
         <v>440</v>
       </c>
@@ -8833,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" hidden="1">
+    <row r="109" spans="1:24">
       <c r="A109" s="2" t="s">
         <v>440</v>
       </c>
@@ -8889,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1">
+    <row r="110" spans="1:24">
       <c r="A110" s="2" t="s">
         <v>440</v>
       </c>
@@ -9001,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:24" hidden="1">
+    <row r="112" spans="1:24">
       <c r="A112" s="2" t="s">
         <v>440</v>
       </c>
@@ -9054,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:24" hidden="1">
+    <row r="113" spans="1:24">
       <c r="A113" s="2" t="s">
         <v>440</v>
       </c>
@@ -9110,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:24" hidden="1">
+    <row r="114" spans="1:24">
       <c r="A114" s="2" t="s">
         <v>440</v>
       </c>
@@ -9166,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:24" hidden="1">
+    <row r="115" spans="1:24">
       <c r="A115" s="2" t="s">
         <v>440</v>
       </c>
@@ -9222,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:24" hidden="1">
+    <row r="116" spans="1:24">
       <c r="A116" s="2" t="s">
         <v>440</v>
       </c>
@@ -9278,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:24" hidden="1">
+    <row r="117" spans="1:24">
       <c r="A117" s="2" t="s">
         <v>440</v>
       </c>
@@ -9331,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:24" hidden="1">
+    <row r="118" spans="1:24">
       <c r="A118" s="2" t="s">
         <v>440</v>
       </c>
@@ -9387,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:24" hidden="1">
+    <row r="119" spans="1:24">
       <c r="A119" s="2" t="s">
         <v>440</v>
       </c>
@@ -9440,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:24" hidden="1">
+    <row r="120" spans="1:24">
       <c r="A120" s="2" t="s">
         <v>440</v>
       </c>
@@ -9546,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1">
+    <row r="122" spans="1:24">
       <c r="A122" s="2" t="s">
         <v>440</v>
       </c>
@@ -9602,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1">
+    <row r="123" spans="1:24">
       <c r="A123" s="2" t="s">
         <v>440</v>
       </c>
@@ -9658,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1">
+    <row r="124" spans="1:24">
       <c r="A124" s="2" t="s">
         <v>440</v>
       </c>
@@ -9714,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1">
+    <row r="125" spans="1:24">
       <c r="A125" s="2" t="s">
         <v>440</v>
       </c>
@@ -9770,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1">
+    <row r="126" spans="1:24">
       <c r="A126" s="2" t="s">
         <v>440</v>
       </c>
@@ -9826,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1">
+    <row r="127" spans="1:24">
       <c r="A127" s="2" t="s">
         <v>440</v>
       </c>
@@ -9882,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1">
+    <row r="128" spans="1:24">
       <c r="A128" s="2" t="s">
         <v>440</v>
       </c>
@@ -9938,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1">
+    <row r="129" spans="1:24">
       <c r="A129" s="2" t="s">
         <v>440</v>
       </c>
@@ -9994,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1">
+    <row r="130" spans="1:24">
       <c r="A130" s="2" t="s">
         <v>440</v>
       </c>
@@ -10050,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1">
+    <row r="131" spans="1:24">
       <c r="A131" s="2" t="s">
         <v>440</v>
       </c>
@@ -10109,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1">
+    <row r="132" spans="1:24">
       <c r="A132" s="2" t="s">
         <v>440</v>
       </c>
@@ -10165,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1">
+    <row r="133" spans="1:24">
       <c r="A133" s="2" t="s">
         <v>440</v>
       </c>
@@ -10280,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1">
+    <row r="135" spans="1:24">
       <c r="A135" s="2" t="s">
         <v>440</v>
       </c>
@@ -10336,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1">
+    <row r="136" spans="1:24">
       <c r="A136" s="2" t="s">
         <v>440</v>
       </c>
@@ -10392,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1">
+    <row r="137" spans="1:24">
       <c r="A137" s="2" t="s">
         <v>440</v>
       </c>
@@ -10448,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1">
+    <row r="138" spans="1:24">
       <c r="A138" s="2" t="s">
         <v>440</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:24" hidden="1">
+    <row r="139" spans="1:24">
       <c r="A139" s="2" t="s">
         <v>440</v>
       </c>
@@ -10563,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1">
+    <row r="140" spans="1:24">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
@@ -10619,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:24" hidden="1">
+    <row r="141" spans="1:24">
       <c r="A141" s="2" t="s">
         <v>440</v>
       </c>
@@ -10675,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1">
+    <row r="142" spans="1:24">
       <c r="A142" s="2" t="s">
         <v>440</v>
       </c>
@@ -10734,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1">
+    <row r="143" spans="1:24">
       <c r="A143" s="2" t="s">
         <v>440</v>
       </c>
@@ -10793,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1">
+    <row r="144" spans="1:24">
       <c r="A144" s="2" t="s">
         <v>440</v>
       </c>
@@ -10855,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1">
+    <row r="145" spans="1:24">
       <c r="A145" s="2" t="s">
         <v>440</v>
       </c>
@@ -10911,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1">
+    <row r="146" spans="1:24">
       <c r="A146" s="2" t="s">
         <v>440</v>
       </c>
@@ -10967,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1">
+    <row r="147" spans="1:24">
       <c r="A147" s="2" t="s">
         <v>440</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1">
+    <row r="148" spans="1:24">
       <c r="A148" s="2" t="s">
         <v>440</v>
       </c>
@@ -11079,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1">
+    <row r="149" spans="1:24">
       <c r="A149" s="2" t="s">
         <v>440</v>
       </c>
@@ -11135,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1">
+    <row r="150" spans="1:24">
       <c r="A150" s="2" t="s">
         <v>440</v>
       </c>
@@ -11191,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1">
+    <row r="151" spans="1:24">
       <c r="A151" s="2" t="s">
         <v>440</v>
       </c>
@@ -11247,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:24" hidden="1">
+    <row r="152" spans="1:24">
       <c r="A152" s="2" t="s">
         <v>441</v>
       </c>
@@ -11303,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:24" hidden="1">
+    <row r="153" spans="1:24">
       <c r="A153" s="2" t="s">
         <v>441</v>
       </c>
@@ -11359,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:24" hidden="1">
+    <row r="154" spans="1:24">
       <c r="A154" s="2" t="s">
         <v>441</v>
       </c>
@@ -11412,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:24" hidden="1">
+    <row r="155" spans="1:24">
       <c r="A155" s="2" t="s">
         <v>442</v>
       </c>
@@ -11465,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:24" hidden="1">
+    <row r="156" spans="1:24">
       <c r="A156" s="2" t="s">
         <v>442</v>
       </c>
@@ -11521,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:24" hidden="1">
+    <row r="157" spans="1:24">
       <c r="A157" s="2" t="s">
         <v>442</v>
       </c>
@@ -11577,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1">
+    <row r="158" spans="1:24">
       <c r="A158" s="2" t="s">
         <v>442</v>
       </c>
@@ -11636,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1">
+    <row r="159" spans="1:24">
       <c r="A159" s="2" t="s">
         <v>442</v>
       </c>
@@ -11692,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1">
+    <row r="160" spans="1:24">
       <c r="A160" s="2" t="s">
         <v>442</v>
       </c>
@@ -11748,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1">
+    <row r="161" spans="1:24">
       <c r="A161" s="2" t="s">
         <v>442</v>
       </c>
@@ -11807,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:24" hidden="1">
+    <row r="162" spans="1:24">
       <c r="A162" s="2" t="s">
         <v>442</v>
       </c>
@@ -11866,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:24" hidden="1">
+    <row r="163" spans="1:24">
       <c r="A163" s="2" t="s">
         <v>442</v>
       </c>
@@ -11925,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1">
+    <row r="164" spans="1:24">
       <c r="A164" s="2" t="s">
         <v>442</v>
       </c>
@@ -11984,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:24" hidden="1">
+    <row r="165" spans="1:24">
       <c r="A165" s="2" t="s">
         <v>442</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:24" hidden="1">
+    <row r="166" spans="1:24">
       <c r="A166" s="2" t="s">
         <v>442</v>
       </c>
@@ -12093,7 +12091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1">
+    <row r="167" spans="1:24">
       <c r="A167" s="2" t="s">
         <v>442</v>
       </c>
@@ -12149,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:24" hidden="1">
+    <row r="168" spans="1:24">
       <c r="A168" s="2" t="s">
         <v>442</v>
       </c>
@@ -12205,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:24" hidden="1">
+    <row r="169" spans="1:24">
       <c r="A169" s="2" t="s">
         <v>442</v>
       </c>
@@ -12264,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:24" hidden="1">
+    <row r="170" spans="1:24">
       <c r="A170" s="2" t="s">
         <v>442</v>
       </c>
@@ -12320,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:24" hidden="1">
+    <row r="171" spans="1:24">
       <c r="A171" s="2" t="s">
         <v>442</v>
       </c>
@@ -12376,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:24" hidden="1">
+    <row r="172" spans="1:24">
       <c r="A172" s="2" t="s">
         <v>442</v>
       </c>
@@ -12432,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:24" hidden="1">
+    <row r="173" spans="1:24">
       <c r="A173" s="2" t="s">
         <v>442</v>
       </c>
@@ -12488,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1">
+    <row r="174" spans="1:24">
       <c r="A174" s="2" t="s">
         <v>442</v>
       </c>
@@ -12544,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1">
+    <row r="175" spans="1:24">
       <c r="A175" s="2" t="s">
         <v>442</v>
       </c>
@@ -12600,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1">
+    <row r="176" spans="1:24">
       <c r="A176" s="2" t="s">
         <v>442</v>
       </c>
@@ -12656,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1">
+    <row r="177" spans="1:24">
       <c r="A177" s="2" t="s">
         <v>442</v>
       </c>
@@ -12712,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1">
+    <row r="178" spans="1:24">
       <c r="A178" s="2" t="s">
         <v>442</v>
       </c>
@@ -12768,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1">
+    <row r="179" spans="1:24">
       <c r="A179" s="2" t="s">
         <v>442</v>
       </c>
@@ -12824,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1">
+    <row r="180" spans="1:24">
       <c r="A180" s="2" t="s">
         <v>442</v>
       </c>
@@ -12989,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1">
+    <row r="183" spans="1:24">
       <c r="A183" s="2" t="s">
         <v>443</v>
       </c>
@@ -13045,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1">
+    <row r="184" spans="1:24">
       <c r="A184" s="2" t="s">
         <v>443</v>
       </c>
@@ -13101,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1">
+    <row r="185" spans="1:24">
       <c r="A185" s="2" t="s">
         <v>443</v>
       </c>
@@ -13157,7 +13155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1">
+    <row r="186" spans="1:24">
       <c r="A186" s="2" t="s">
         <v>443</v>
       </c>
@@ -13213,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1">
+    <row r="187" spans="1:24">
       <c r="A187" s="2" t="s">
         <v>443</v>
       </c>
@@ -13269,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:24" hidden="1">
+    <row r="188" spans="1:24">
       <c r="A188" s="2" t="s">
         <v>443</v>
       </c>
@@ -13325,7 +13323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:24" hidden="1">
+    <row r="189" spans="1:24">
       <c r="A189" s="2" t="s">
         <v>443</v>
       </c>
@@ -13381,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:24" hidden="1">
+    <row r="190" spans="1:24">
       <c r="A190" s="2" t="s">
         <v>443</v>
       </c>
@@ -13437,7 +13435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:24" hidden="1">
+    <row r="191" spans="1:24">
       <c r="A191" s="2" t="s">
         <v>443</v>
       </c>
@@ -13493,7 +13491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:24" hidden="1">
+    <row r="192" spans="1:24">
       <c r="A192" s="2" t="s">
         <v>443</v>
       </c>
@@ -13546,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1">
+    <row r="193" spans="1:24">
       <c r="A193" s="2" t="s">
         <v>443</v>
       </c>
@@ -13602,7 +13600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:24" hidden="1">
+    <row r="194" spans="1:24">
       <c r="A194" s="2" t="s">
         <v>443</v>
       </c>
@@ -13658,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:24" hidden="1">
+    <row r="195" spans="1:24">
       <c r="A195" s="2" t="s">
         <v>443</v>
       </c>
@@ -13711,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:24" hidden="1">
+    <row r="196" spans="1:24">
       <c r="A196" s="2" t="s">
         <v>443</v>
       </c>
@@ -13767,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:24" hidden="1">
+    <row r="197" spans="1:24">
       <c r="A197" s="2" t="s">
         <v>443</v>
       </c>
@@ -13823,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:24" hidden="1">
+    <row r="198" spans="1:24">
       <c r="A198" s="2" t="s">
         <v>443</v>
       </c>
@@ -13879,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:24" hidden="1">
+    <row r="199" spans="1:24">
       <c r="A199" s="2" t="s">
         <v>443</v>
       </c>
@@ -13935,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:24" hidden="1">
+    <row r="200" spans="1:24">
       <c r="A200" s="2" t="s">
         <v>443</v>
       </c>
@@ -13988,7 +13986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:24" hidden="1">
+    <row r="201" spans="1:24">
       <c r="A201" s="2" t="s">
         <v>443</v>
       </c>
@@ -14047,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:24" hidden="1">
+    <row r="202" spans="1:24">
       <c r="A202" s="2" t="s">
         <v>443</v>
       </c>
@@ -14106,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:24" hidden="1">
+    <row r="203" spans="1:24">
       <c r="A203" s="2" t="s">
         <v>443</v>
       </c>
@@ -14165,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:24" hidden="1">
+    <row r="204" spans="1:24">
       <c r="A204" s="2" t="s">
         <v>443</v>
       </c>
@@ -14221,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:24" hidden="1">
+    <row r="205" spans="1:24">
       <c r="A205" s="2" t="s">
         <v>443</v>
       </c>
@@ -14277,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:24" hidden="1">
+    <row r="206" spans="1:24">
       <c r="A206" s="2" t="s">
         <v>443</v>
       </c>
@@ -14336,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:24" hidden="1">
+    <row r="207" spans="1:24">
       <c r="A207" s="2" t="s">
         <v>443</v>
       </c>
@@ -14392,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:24" hidden="1">
+    <row r="208" spans="1:24">
       <c r="A208" s="2" t="s">
         <v>443</v>
       </c>
@@ -14451,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:24" hidden="1">
+    <row r="209" spans="1:24">
       <c r="A209" s="2" t="s">
         <v>443</v>
       </c>
@@ -14510,7 +14508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:24" hidden="1">
+    <row r="210" spans="1:24">
       <c r="A210" s="2" t="s">
         <v>444</v>
       </c>
@@ -14569,7 +14567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:24" hidden="1">
+    <row r="211" spans="1:24">
       <c r="A211" s="2" t="s">
         <v>444</v>
       </c>
@@ -14622,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:24" hidden="1">
+    <row r="212" spans="1:24">
       <c r="A212" s="2" t="s">
         <v>444</v>
       </c>
@@ -14681,7 +14679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:24" hidden="1">
+    <row r="213" spans="1:24">
       <c r="A213" s="2" t="s">
         <v>445</v>
       </c>
@@ -14737,7 +14735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:24" hidden="1">
+    <row r="214" spans="1:24">
       <c r="A214" s="2" t="s">
         <v>444</v>
       </c>
@@ -14796,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:24" hidden="1">
+    <row r="215" spans="1:24">
       <c r="A215" s="2" t="s">
         <v>444</v>
       </c>
@@ -14852,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:24" hidden="1">
+    <row r="216" spans="1:24">
       <c r="A216" s="2" t="s">
         <v>444</v>
       </c>
@@ -14908,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:24" hidden="1">
+    <row r="217" spans="1:24">
       <c r="A217" s="2" t="s">
         <v>444</v>
       </c>
@@ -14967,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:24" hidden="1">
+    <row r="218" spans="1:24">
       <c r="A218" s="2" t="s">
         <v>444</v>
       </c>
@@ -15020,7 +15018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:24" hidden="1">
+    <row r="219" spans="1:24">
       <c r="A219" s="2" t="s">
         <v>444</v>
       </c>
@@ -15076,7 +15074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:24" hidden="1">
+    <row r="220" spans="1:24">
       <c r="A220" s="2" t="s">
         <v>444</v>
       </c>
@@ -15132,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:24" hidden="1">
+    <row r="221" spans="1:24">
       <c r="A221" s="2" t="s">
         <v>444</v>
       </c>
@@ -15188,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:24" hidden="1">
+    <row r="222" spans="1:24">
       <c r="A222" s="2" t="s">
         <v>446</v>
       </c>
@@ -15244,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:24" hidden="1">
+    <row r="223" spans="1:24">
       <c r="A223" s="2" t="s">
         <v>446</v>
       </c>
@@ -15303,7 +15301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:24" hidden="1">
+    <row r="224" spans="1:24">
       <c r="A224" s="2" t="s">
         <v>446</v>
       </c>
@@ -15362,7 +15360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:24" hidden="1">
+    <row r="225" spans="1:24">
       <c r="A225" s="2" t="s">
         <v>446</v>
       </c>
@@ -15418,7 +15416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1">
+    <row r="226" spans="1:24">
       <c r="A226" s="2" t="s">
         <v>446</v>
       </c>
@@ -15477,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:24" hidden="1">
+    <row r="227" spans="1:24">
       <c r="A227" s="2" t="s">
         <v>446</v>
       </c>
@@ -15530,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:24" hidden="1">
+    <row r="228" spans="1:24">
       <c r="A228" s="2" t="s">
         <v>446</v>
       </c>
@@ -15586,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1">
+    <row r="229" spans="1:24">
       <c r="A229" s="2" t="s">
         <v>446</v>
       </c>
@@ -15642,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" hidden="1">
+    <row r="230" spans="1:24">
       <c r="A230" s="2" t="s">
         <v>446</v>
       </c>
@@ -15701,7 +15699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:24" hidden="1">
+    <row r="231" spans="1:24">
       <c r="A231" s="2" t="s">
         <v>446</v>
       </c>
@@ -15754,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1">
+    <row r="232" spans="1:24">
       <c r="A232" s="2" t="s">
         <v>446</v>
       </c>
@@ -15810,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:24" hidden="1">
+    <row r="233" spans="1:24">
       <c r="A233" s="2" t="s">
         <v>446</v>
       </c>
@@ -15866,7 +15864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:24" hidden="1">
+    <row r="234" spans="1:24">
       <c r="A234" s="2" t="s">
         <v>446</v>
       </c>
@@ -15922,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:24" hidden="1">
+    <row r="235" spans="1:24">
       <c r="A235" s="2" t="s">
         <v>446</v>
       </c>
@@ -16040,7 +16038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:24" hidden="1">
+    <row r="237" spans="1:24">
       <c r="A237" s="2" t="s">
         <v>446</v>
       </c>
@@ -16093,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:24" hidden="1">
+    <row r="238" spans="1:24">
       <c r="A238" s="2" t="s">
         <v>446</v>
       </c>
@@ -16149,7 +16147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1">
+    <row r="239" spans="1:24">
       <c r="A239" s="2" t="s">
         <v>446</v>
       </c>
@@ -16264,7 +16262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1">
+    <row r="241" spans="1:24">
       <c r="A241" s="2" t="s">
         <v>446</v>
       </c>
@@ -16317,7 +16315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1">
+    <row r="242" spans="1:24">
       <c r="A242" s="2" t="s">
         <v>446</v>
       </c>
@@ -16373,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1">
+    <row r="243" spans="1:24">
       <c r="A243" s="2" t="s">
         <v>446</v>
       </c>
@@ -16429,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1">
+    <row r="244" spans="1:24">
       <c r="A244" s="2" t="s">
         <v>446</v>
       </c>
@@ -16485,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1">
+    <row r="245" spans="1:24">
       <c r="A245" s="2" t="s">
         <v>446</v>
       </c>
@@ -16544,7 +16542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1">
+    <row r="246" spans="1:24">
       <c r="A246" s="2" t="s">
         <v>446</v>
       </c>
@@ -16603,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1">
+    <row r="247" spans="1:24">
       <c r="A247" s="2" t="s">
         <v>446</v>
       </c>
@@ -16659,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:24" hidden="1">
+    <row r="248" spans="1:24">
       <c r="A248" s="2" t="s">
         <v>446</v>
       </c>
@@ -16715,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1">
+    <row r="249" spans="1:24">
       <c r="A249" s="2" t="s">
         <v>446</v>
       </c>
@@ -16771,7 +16769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:24" hidden="1">
+    <row r="250" spans="1:24">
       <c r="A250" s="2" t="s">
         <v>446</v>
       </c>
@@ -16827,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:24" hidden="1">
+    <row r="251" spans="1:24">
       <c r="A251" s="2" t="s">
         <v>446</v>
       </c>
@@ -16883,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1">
+    <row r="252" spans="1:24">
       <c r="A252" s="2" t="s">
         <v>446</v>
       </c>
@@ -16995,7 +16993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1">
+    <row r="254" spans="1:24">
       <c r="A254" s="2" t="s">
         <v>447</v>
       </c>
@@ -17054,7 +17052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1">
+    <row r="255" spans="1:24">
       <c r="A255" s="2" t="s">
         <v>447</v>
       </c>
@@ -17110,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:24" hidden="1">
+    <row r="256" spans="1:24">
       <c r="A256" s="2" t="s">
         <v>447</v>
       </c>
@@ -17166,7 +17164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:24" hidden="1">
+    <row r="257" spans="1:24">
       <c r="A257" s="2" t="s">
         <v>447</v>
       </c>
@@ -17225,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:24" hidden="1">
+    <row r="258" spans="1:24">
       <c r="A258" s="2" t="s">
         <v>447</v>
       </c>
@@ -17281,7 +17279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:24" hidden="1">
+    <row r="259" spans="1:24">
       <c r="A259" s="2" t="s">
         <v>447</v>
       </c>
@@ -17337,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:24" hidden="1">
+    <row r="260" spans="1:24">
       <c r="A260" s="2" t="s">
         <v>447</v>
       </c>
@@ -17393,7 +17391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:24" hidden="1">
+    <row r="261" spans="1:24">
       <c r="A261" s="2" t="s">
         <v>447</v>
       </c>
@@ -17449,7 +17447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:24" hidden="1">
+    <row r="262" spans="1:24">
       <c r="A262" s="2" t="s">
         <v>447</v>
       </c>
@@ -17948,11 +17946,6 @@
       <c r="O1048576" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y270" xr:uid="{C6C432E6-75F9-4C01-9013-051926990782}">
-    <filterColumn colId="14">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17960,7 +17953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB87BE6-7E03-4CFF-9A39-1FFFEBF2ED46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N270"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
@@ -26522,10 +26515,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:H108 G111:H111 G113:H113 G2:H87 G89:H106 G115:H270" xr:uid="{86D2A2B2-274D-4544-9D8B-77E72FD11440}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:H108 G111:H111 G113:H113 G2:H87 G89:H106 G115:H270">
       <formula1>"处理,回归,关闭,挂起,延迟,跟踪"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G107:H107 G88:H88 G112:H112 G114:H114 G109:H110" xr:uid="{2B3EE5E9-19EF-4116-B6CB-7462F75BA0A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G107:H107 G88:H88 G112:H112 G114:H114 G109:H110">
       <formula1>"处理,回归,关闭,挂起,延迟,跟踪,需求"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26535,7 +26528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F90614C-A188-445F-97B4-C53C06631EBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CH64"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -30882,10 +30875,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153744DA-12CF-478C-A146-355F378884C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
@@ -35492,219 +35485,219 @@
         <v>43843</v>
       </c>
       <c r="S24" s="25">
-        <f>S23+S5</f>
+        <f t="shared" ref="S24:S40" si="3">S23+S5</f>
         <v>0</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:BT24" si="3">T23+T5</f>
+        <f t="shared" ref="T24:BT24" si="4">T23+T5</f>
         <v>0</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="X24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AJ24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AO24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AT24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AZ24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BA24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BC24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BD24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BF24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BI24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BJ24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BK24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BM24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BN24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BO24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BP24" s="25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BR24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BS24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT24" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BU24" s="26"/>
@@ -35772,219 +35765,219 @@
         <v>43844</v>
       </c>
       <c r="S25" s="25">
-        <f>S24+S6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="25">
-        <f t="shared" ref="T25:BT25" si="4">T24+T6</f>
+        <f t="shared" ref="T25:BT25" si="5">T24+T6</f>
         <v>0</v>
       </c>
       <c r="U25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="X25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AJ25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AO25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AT25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BI25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="BN25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BO25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BP25" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BR25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BS25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BT25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BU25" s="26"/>
@@ -36052,219 +36045,219 @@
         <v>43845</v>
       </c>
       <c r="S26" s="25">
-        <f>S25+S7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" ref="T26:BT26" si="5">T25+T7</f>
+        <f t="shared" ref="T26:BT26" si="6">T25+T7</f>
         <v>0</v>
       </c>
       <c r="U26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="X26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AJ26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AN26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="AO26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AT26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BI26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="BN26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP26" s="25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU26" s="26"/>
@@ -36332,219 +36325,219 @@
         <v>43875</v>
       </c>
       <c r="S27" s="25">
-        <f>S26+S8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" ref="T27:BT27" si="6">T26+T8</f>
+        <f t="shared" ref="T27:BT27" si="7">T26+T8</f>
         <v>0</v>
       </c>
       <c r="U27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="X27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AJ27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AO27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AT27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AV27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AX27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AY27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BA27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BC27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BD27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BE27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="BI27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BK27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BM27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="BN27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP27" s="25" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BS27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BU27" s="26"/>
@@ -36612,219 +36605,219 @@
         <v>43879</v>
       </c>
       <c r="S28" s="25">
-        <f>S27+S9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T28" s="25">
-        <f t="shared" ref="T28:BT28" si="7">T27+T9</f>
+        <f t="shared" ref="T28:BT28" si="8">T27+T9</f>
         <v>0</v>
       </c>
       <c r="U28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AJ28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="AO28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AT28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AZ28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BA28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="BI28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BK28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BM28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="BN28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BO28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BP28" s="25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BR28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BS28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BT28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BU28" s="26"/>
@@ -36892,219 +36885,219 @@
         <v>43880</v>
       </c>
       <c r="S29" s="25">
-        <f>S28+S10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T29" s="25">
-        <f t="shared" ref="T29:BT29" si="8">T28+T10</f>
+        <f t="shared" ref="T29:BT29" si="9">T28+T10</f>
         <v>0</v>
       </c>
       <c r="U29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="X29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AJ29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="AO29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AT29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AU29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AV29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AY29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AZ29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BA29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BC29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BE29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BF29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BH29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="BI29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BK29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BM29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="BN29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BP29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BR29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BS29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BT29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BU29" s="26"/>
@@ -37172,219 +37165,219 @@
         <v>43886</v>
       </c>
       <c r="S30" s="25">
-        <f>S29+S11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T30" s="25">
-        <f t="shared" ref="T30:BT30" si="9">T29+T11</f>
+        <f t="shared" ref="T30:BT30" si="10">T29+T11</f>
         <v>0</v>
       </c>
       <c r="U30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="X30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AJ30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="AO30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AT30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AV30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AX30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AY30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BA30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BC30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BD30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BH30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="BI30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BJ30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BK30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BM30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="BN30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BO30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP30" s="25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BR30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BS30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BT30" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BU30" s="26"/>
@@ -37452,219 +37445,219 @@
         <v>43908</v>
       </c>
       <c r="S31" s="25">
-        <f>S30+S12</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T31" s="25">
-        <f t="shared" ref="T31:BT31" si="10">T30+T12</f>
+        <f t="shared" ref="T31:BT31" si="11">T30+T12</f>
         <v>5</v>
       </c>
       <c r="U31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="W31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="X31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AE31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AJ31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="AO31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AP31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AT31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AV31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AZ31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BC31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BH31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="BI31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="BK31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="BM31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="BN31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BO31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BP31" s="25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BR31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="BS31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BT31" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BU31" s="26"/>
@@ -37732,219 +37725,219 @@
         <v>43916</v>
       </c>
       <c r="S32" s="25">
-        <f>S31+S13</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T32" s="25">
-        <f t="shared" ref="T32:BT32" si="11">T31+T13</f>
+        <f t="shared" ref="T32:BT32" si="12">T31+T13</f>
         <v>5</v>
       </c>
       <c r="U32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="X32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AE32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AJ32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AN32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AO32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AP32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AT32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AZ32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BA32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BC32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BE32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BH32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="BI32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BK32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="BM32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="BN32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BO32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BP32" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BR32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BS32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BT32" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BU32" s="26"/>
@@ -38012,219 +38005,219 @@
         <v>43920</v>
       </c>
       <c r="S33" s="25">
-        <f>S32+S14</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T33" s="25">
-        <f t="shared" ref="T33:BT33" si="12">T32+T14</f>
+        <f t="shared" ref="T33:BT33" si="13">T32+T14</f>
         <v>8</v>
       </c>
       <c r="U33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="W33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Z33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AE33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AJ33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AN33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AO33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AP33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AT33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AX33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AZ33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BA33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BC33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="BH33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="BI33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BJ33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BK33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="BM33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="BN33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BO33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="BP33" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BR33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="BS33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BT33" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BU33" s="26"/>
@@ -38292,219 +38285,219 @@
         <v>43922</v>
       </c>
       <c r="S34" s="25">
-        <f>S33+S15</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T34" s="25">
-        <f t="shared" ref="T34:BT34" si="13">T33+T15</f>
+        <f t="shared" ref="T34:BT34" si="14">T33+T15</f>
         <v>19</v>
       </c>
       <c r="U34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="X34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Z34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="AE34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AJ34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AN34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="AO34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AP34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AS34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AT34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AY34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BC34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BD34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BE34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BF34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BH34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="BI34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BK34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="BM34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="BN34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BO34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="BP34" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BR34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BS34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BT34" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BU34" s="26"/>
@@ -38572,219 +38565,219 @@
         <v>43923</v>
       </c>
       <c r="S35" s="25">
-        <f>S34+S16</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T35" s="25">
-        <f t="shared" ref="T35:BT35" si="14">T34+T16</f>
+        <f t="shared" ref="T35:BT35" si="15">T34+T16</f>
         <v>23</v>
       </c>
       <c r="U35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="X35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="Z35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="AE35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AJ35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>57</v>
       </c>
       <c r="AO35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AP35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AQ35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="AT35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AU35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AV35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AX35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AY35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AZ35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BC35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BE35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BF35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BH35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="BI35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BK35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="BM35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="BN35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="BP35" s="25" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="BS35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BT35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BU35" s="26"/>
@@ -38852,219 +38845,219 @@
         <v>43928</v>
       </c>
       <c r="S36" s="25">
-        <f>S35+S17</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T36" s="25">
-        <f t="shared" ref="T36:BT36" si="15">T35+T17</f>
+        <f t="shared" ref="T36:BT36" si="16">T35+T17</f>
         <v>24</v>
       </c>
       <c r="U36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="X36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="AE36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="AJ36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AN36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AO36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AP36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AQ36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AS36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="AT36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AU36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AV36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AY36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AZ36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BA36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BC36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BF36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="BH36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="BI36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BK36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="BM36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="BN36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BO36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="BP36" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BR36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BS36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BT36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BU36" s="26"/>
@@ -39132,219 +39125,219 @@
         <v>43934</v>
       </c>
       <c r="S37" s="25">
-        <f>S36+S18</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T37" s="25">
-        <f t="shared" ref="T37:BT37" si="16">T36+T18</f>
+        <f t="shared" ref="T37:BT37" si="17">T36+T18</f>
         <v>25</v>
       </c>
       <c r="U37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="X37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Z37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="AE37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="AJ37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AK37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AL37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AN37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="AO37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AP37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AQ37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="AT37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AU37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BD37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="BH37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="BI37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BK37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="BM37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
       <c r="BN37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BO37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="BP37" s="25" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BR37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="BS37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BT37" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BU37" s="26"/>
@@ -39412,219 +39405,219 @@
         <v>43937</v>
       </c>
       <c r="S38" s="25">
-        <f>S37+S19</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T38" s="25">
-        <f t="shared" ref="T38:BT38" si="17">T37+T19</f>
+        <f t="shared" ref="T38:BT38" si="18">T37+T19</f>
         <v>25</v>
       </c>
       <c r="U38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="X38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="Z38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="AE38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AJ38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AL38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AN38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="AO38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AP38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AQ38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="AT38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AU38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AV38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BD38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="BH38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="BI38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BK38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="BM38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>109</v>
       </c>
       <c r="BN38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BO38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="BP38" s="25" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BR38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BS38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BT38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BU38" s="26"/>
@@ -39692,219 +39685,219 @@
         <v>43964</v>
       </c>
       <c r="S39" s="25">
-        <f>S38+S20</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T39" s="25">
-        <f t="shared" ref="T39:BT39" si="18">T38+T20</f>
+        <f t="shared" ref="T39:BT39" si="19">T38+T20</f>
         <v>25</v>
       </c>
       <c r="U39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="X39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="Z39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="AE39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AG39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AJ39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AN39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>59</v>
       </c>
       <c r="AO39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AP39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AQ39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AS39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="AT39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AU39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AV39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AX39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BA39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BC39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BD39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BF39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="BH39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="BI39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BJ39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BK39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="BM39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="BN39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BO39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="BP39" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BR39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BS39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BT39" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BU39" s="26"/>
@@ -39972,219 +39965,219 @@
         <v>43992</v>
       </c>
       <c r="S40" s="25">
-        <f>S39+S21</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T40" s="25">
-        <f t="shared" ref="T40:BT40" si="19">T39+T21</f>
+        <f t="shared" ref="T40:BT40" si="20">T39+T21</f>
         <v>25</v>
       </c>
       <c r="U40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="W40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="X40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="Z40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AD40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="AE40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AG40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AJ40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AN40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>59</v>
       </c>
       <c r="AO40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AP40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AQ40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AS40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="AT40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AU40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AV40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AX40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AY40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AZ40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BA40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BC40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BD40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BE40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BF40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="BH40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="BI40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BJ40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BK40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="BM40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
       <c r="BN40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BO40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="BP40" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BQ40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="BS40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BT40" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BU40" s="22"/>
